--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I4I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I4I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0CF595-5D63-4EA0-BAFF-2CB7FE3E80AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5D075-EAAF-4B02-A3D5-FFCD91AF64A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -774,8 +774,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0190519A-A26F-4A06-BAE0-95892D295CC9}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,8 +1993,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I4I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I3I4I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5D075-EAAF-4B02-A3D5-FFCD91AF64A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE576C-B0E2-4885-AA51-C669C626AD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -774,8 +774,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1610,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1772,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>98</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>116</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,8 +1993,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2122,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2136,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9</v>
